--- a/testOnFile/TestFilesFromNTNU/impa_grind_test/data sheet.xlsx
+++ b/testOnFile/TestFilesFromNTNU/impa_grind_test/data sheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/erlehal_ntnu_no/Documents/Bachelor thesis Aker, Musculoskeletal Risks/Sensor data/2025.04.10 ImpaGrindTest_V/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erlenns\Downloads\Bachelor\Bachelor-E2511\testOnFile\TestFilesFromNTNU\impa_grind_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2D5CF4-5B94-4293-8ABB-DCA13AC8C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF259C0-CD2E-4ED7-B508-89207D090E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14250" windowHeight="7150" xr2:uid="{0E68D2E2-6675-404D-A49C-5DB0D002D3BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0E68D2E2-6675-404D-A49C-5DB0D002D3BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Based on video timestamp</t>
   </si>
@@ -109,6 +108,84 @@
   </si>
   <si>
     <t xml:space="preserve">activity </t>
+  </si>
+  <si>
+    <t>0      0–20        IDLE        0.55          IDLE (0.55), IMPA (0.20), GRINDMED (0.08)              IDLE</t>
+  </si>
+  <si>
+    <t>1     20–40        IDLE        0.41          IDLE (0.41), IMPA (0.32), GRINDMED (0.07)              IDLE</t>
+  </si>
+  <si>
+    <t>2     40–60        IDLE        0.44          IDLE (0.44), IMPA (0.26), GRINDMED (0.09)              IDLE</t>
+  </si>
+  <si>
+    <t>3     60–80        IDLE        0.38          IDLE (0.38), IMPA (0.31), GRINDMED (0.09)              IDLE</t>
+  </si>
+  <si>
+    <t>4    80–100        IMPA        0.46        IMPA (0.46), IDLE (0.26), GRINDSMALL (0.08)              IMPA</t>
+  </si>
+  <si>
+    <t>5   100–120        IMPA        0.74          IMPA (0.74), IDLE (0.11), GRINDMED (0.05)              IMPA</t>
+  </si>
+  <si>
+    <t>6   120–140        IMPA        0.75          IMPA (0.75), IDLE (0.12), GRINDMED (0.03)              IMPA</t>
+  </si>
+  <si>
+    <t>7   140–160        IMPA        0.75        IMPA (0.75), IDLE (0.15), GRINDSMALL (0.02)              IMPA</t>
+  </si>
+  <si>
+    <t>8   160–180  GRINDSMALL        0.77    GRINDSMALL (0.77), IDLE (0.08), GRINDBIG (0.05)        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>9   180–200  GRINDSMALL        0.84  GRINDSMALL (0.84), GRINDMED (0.11), GRINDBIG (...        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>10  200–220  GRINDSMALL        0.92  GRINDSMALL (0.92), GRINDMED (0.05), GRINDBIG (...        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>11  220–240  GRINDSMALL        0.96  GRINDSMALL (0.96), GRINDMED (0.01), GRINDBIG (...        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>12  240–260  GRINDSMALL        0.96  GRINDSMALL (0.96), GRINDMED (0.02), GRINDBIG (...        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>13  260–280  GRINDSMALL        0.92  GRINDSMALL (0.92), GRINDBIG (0.04), GRINDMED (...        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>14  280–300    GRINDMED        0.41    GRINDMED (0.41), IDLE (0.24), GRINDSMALL (0.14)        GRINDSMALL</t>
+  </si>
+  <si>
+    <t>15  300–320        IDLE        0.74    IDLE (0.74), GRINDMED (0.07), GRINDSMALL (0.07)              IDLE</t>
+  </si>
+  <si>
+    <t>16  320–340        IDLE        0.64    IDLE (0.64), GRINDMED (0.16), GRINDSMALL (0.07)              IDLE</t>
+  </si>
+  <si>
+    <t>17  340–360    GRINDMED        0.67    GRINDMED (0.67), IDLE (0.17), GRINDSMALL (0.05)          GRINDMED</t>
+  </si>
+  <si>
+    <t>18  360–380    GRINDMED        0.44    GRINDMED (0.44), IDLE (0.36), GRINDSMALL (0.07)          GRINDMED</t>
+  </si>
+  <si>
+    <t>19  380–400        IDLE        0.40    IDLE (0.40), GRINDMED (0.40), GRINDSMALL (0.07)          GRINDMED</t>
+  </si>
+  <si>
+    <t>20  400–420    GRINDMED        0.60          GRINDMED (0.60), IMPA (0.17), IDLE (0.13)              IDLE</t>
+  </si>
+  <si>
+    <t>impa</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>grindmed</t>
+  </si>
+  <si>
+    <t>grindsmall</t>
+  </si>
+  <si>
+    <t>y_true</t>
   </si>
 </sst>
 </file>
@@ -492,32 +569,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37936C53-5FAF-405A-86B9-18A982D19690}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -539,8 +619,14 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -563,8 +649,14 @@
         <f>E3-D3</f>
         <v>1.0405092592592593E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -587,8 +679,14 @@
         <f t="shared" ref="G4:G5" si="0">E4-D4</f>
         <v>3.8773148148148148E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -611,76 +709,193 @@
         <f t="shared" si="0"/>
         <v>1.0856481481481483E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <f>SUM(G3:G5)</f>
         <v>2.5138888888888891E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>286</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -692,14 +907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4c731431-45a4-491d-96b1-cea476f37c29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010044CB24D0F807A64B9D6BFC9EAEFD2226" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ca0cf9fe55ab43c689b2bcce023897f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c731431-45a4-491d-96b1-cea476f37c29" xmlns:ns4="f45a2316-f62c-48b0-87f5-bea488b9099d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e82d935ceb1653414e93fc3c2d932ac1" ns3:_="" ns4:_="">
     <xsd:import namespace="4c731431-45a4-491d-96b1-cea476f37c29"/>
@@ -952,6 +1159,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4c731431-45a4-491d-96b1-cea476f37c29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -962,23 +1177,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BFC1CAC-F43D-46A4-8151-031B8E39B137}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f45a2316-f62c-48b0-87f5-bea488b9099d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c731431-45a4-491d-96b1-cea476f37c29"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6C9EE70-2873-4E74-95F9-440226BA85BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -997,6 +1195,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BFC1CAC-F43D-46A4-8151-031B8E39B137}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f45a2316-f62c-48b0-87f5-bea488b9099d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c731431-45a4-491d-96b1-cea476f37c29"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D08532A4-EA52-4119-9A85-370253318AD8}">
   <ds:schemaRefs>
